--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +177,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="5" customFormat="true">
+      <c r="A1" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="5">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +224,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +270,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -425,10 +437,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="3" t="s">
+      <c r="J10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -472,28 +484,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="3">
+      <c r="A12" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="3">
+      <c r="C12" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -518,28 +530,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="3">
+      <c r="B14" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="3">
+      <c r="E14" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="3">
+      <c r="F14" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="3">
+      <c r="G14" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="3">
+      <c r="H14" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="3">
+      <c r="I14" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -627,10 +639,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
+      <c r="J17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -674,28 +686,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="3">
+      <c r="A19" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="3">
+      <c r="C19" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -720,28 +732,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="3">
+      <c r="B21" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="3">
+      <c r="C21" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="3">
+      <c r="D21" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="3">
+      <c r="E21" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="3">
+      <c r="F21" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="3">
+      <c r="G21" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="3">
+      <c r="H21" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="3">
+      <c r="I21" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -887,10 +899,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="J26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -934,28 +946,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="3">
+      <c r="A28" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="3">
+      <c r="B28" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="3">
+      <c r="C28" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="3">
+      <c r="E28" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="3">
+      <c r="F28" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="3">
+      <c r="G28" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="3">
+      <c r="H28" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -980,28 +992,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="3">
+      <c r="C30" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="3">
+      <c r="D30" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="3">
+      <c r="I30" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1147,10 +1159,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="3" t="s">
+      <c r="J35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1194,28 +1206,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="3">
+      <c r="A37" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="3">
+      <c r="B37" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="3">
+      <c r="C37" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="3">
+      <c r="E37" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="3">
+      <c r="F37" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="3">
+      <c r="G37" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="3">
+      <c r="H37" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1240,28 +1252,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="3">
+      <c r="B39" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="3">
+      <c r="C39" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="3">
+      <c r="D39" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="3">
+      <c r="E39" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="3">
+      <c r="F39" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="3">
+      <c r="G39" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="3">
+      <c r="H39" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="3">
+      <c r="I39" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1378,10 +1390,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1425,28 +1437,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="3">
+      <c r="C45" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1471,28 +1483,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1580,10 +1592,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1627,28 +1639,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="3">
+      <c r="C52" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1673,28 +1685,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -1869,10 +1881,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="3" t="s">
+      <c r="J60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1916,28 +1928,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="3">
+      <c r="A62" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="3">
+      <c r="B62" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="3">
+      <c r="C62" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="3">
+      <c r="E62" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="3">
+      <c r="F62" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="3">
+      <c r="G62" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="3">
+      <c r="H62" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -1962,28 +1974,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="3">
+      <c r="B64" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="3">
+      <c r="C64" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="3">
+      <c r="D64" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="3">
+      <c r="E64" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="3">
+      <c r="F64" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="3">
+      <c r="G64" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="3">
+      <c r="H64" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="3">
+      <c r="I64" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2100,10 +2112,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="3" t="s">
+      <c r="J68" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2147,28 +2159,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="3">
+      <c r="A70" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="3">
+      <c r="C70" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2193,28 +2205,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="3">
+      <c r="B72" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="3">
+      <c r="C72" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="3">
+      <c r="D72" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="3">
+      <c r="E72" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="3">
+      <c r="F72" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="3">
+      <c r="G72" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="3">
+      <c r="H72" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="3">
+      <c r="I72" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2360,10 +2372,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="3" t="s">
+      <c r="J77" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2407,28 +2419,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="3">
+      <c r="A79" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="3">
+      <c r="B79" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="3">
+      <c r="C79" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="3">
+      <c r="E79" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="3">
+      <c r="F79" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="3">
+      <c r="G79" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="3">
+      <c r="H79" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2453,28 +2465,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="3">
+      <c r="B81" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="3">
+      <c r="C81" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="3">
+      <c r="D81" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="3">
+      <c r="E81" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="3">
+      <c r="F81" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="3">
+      <c r="G81" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="3">
+      <c r="H81" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="3">
+      <c r="I81" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2591,10 +2603,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2638,28 +2650,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="3">
+      <c r="C87" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2684,28 +2696,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -2851,10 +2863,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="3" t="s">
+      <c r="J94" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2898,28 +2910,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="3">
+      <c r="A96" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="3">
+      <c r="C96" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -2944,28 +2956,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="3">
+      <c r="B98" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="3">
+      <c r="C98" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="3">
+      <c r="D98" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="3">
+      <c r="E98" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="3">
+      <c r="F98" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="3">
+      <c r="G98" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="3">
+      <c r="H98" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="3">
+      <c r="I98" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3082,10 +3094,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="3" t="s">
+      <c r="J102" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3129,28 +3141,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="3">
+      <c r="A104" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="3">
+      <c r="B104" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="3">
+      <c r="C104" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="3">
+      <c r="E104" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="3">
+      <c r="F104" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="3">
+      <c r="G104" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="3">
+      <c r="H104" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3175,28 +3187,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="3">
+      <c r="C106" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="3">
+      <c r="D106" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="3">
+      <c r="I106" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3342,10 +3354,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="3" t="s">
+      <c r="J111" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3389,28 +3401,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="3">
+      <c r="A113" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="3">
+      <c r="C113" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3435,28 +3447,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="3">
+      <c r="C115" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="3">
+      <c r="D115" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="3">
+      <c r="I115" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3573,10 +3585,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="3" t="s">
+      <c r="J119" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3620,28 +3632,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="3">
+      <c r="A121" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="3">
+      <c r="B121" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="3">
+      <c r="C121" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="3">
+      <c r="E121" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="3">
+      <c r="F121" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="3">
+      <c r="G121" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="3">
+      <c r="H121" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3666,28 +3678,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="3">
+      <c r="B123" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="3">
+      <c r="C123" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="3">
+      <c r="D123" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="3">
+      <c r="E123" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="3">
+      <c r="F123" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="3">
+      <c r="G123" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="3">
+      <c r="H123" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="3">
+      <c r="I123" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -3804,10 +3816,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3851,28 +3863,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -3897,28 +3909,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4064,10 +4076,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="3" t="s">
+      <c r="J136" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4111,28 +4123,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="3">
+      <c r="A138" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="3">
+      <c r="C138" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4157,28 +4169,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="3">
+      <c r="B140" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="3">
+      <c r="C140" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="3">
+      <c r="D140" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="3">
+      <c r="E140" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="3">
+      <c r="F140" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="3">
+      <c r="G140" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="3">
+      <c r="H140" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="3">
+      <c r="I140" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4295,10 +4307,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="3" t="s">
+      <c r="J144" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4342,28 +4354,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="3">
+      <c r="A146" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="3">
+      <c r="B146" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="3">
+      <c r="C146" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="3">
+      <c r="E146" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="3">
+      <c r="F146" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="3">
+      <c r="G146" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="3">
+      <c r="H146" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4388,28 +4400,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="3">
+      <c r="C148" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="3">
+      <c r="D148" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="3">
+      <c r="I148" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4526,10 +4538,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4573,28 +4585,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4619,28 +4631,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4757,10 +4769,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="3" t="s">
+      <c r="J160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4804,28 +4816,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="3">
+      <c r="A162" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="3">
+      <c r="C162" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -4850,28 +4862,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="3">
+      <c r="B164" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="3">
+      <c r="C164" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="3">
+      <c r="D164" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="3">
+      <c r="E164" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="3">
+      <c r="F164" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="3">
+      <c r="G164" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="3">
+      <c r="H164" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="3">
+      <c r="I164" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -4988,10 +5000,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="3" t="s">
+      <c r="J168" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5035,28 +5047,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="3">
+      <c r="A170" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="3">
+      <c r="C170" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5081,28 +5093,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="3">
+      <c r="C172" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="3">
+      <c r="D172" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="3">
+      <c r="I172" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5219,10 +5231,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="3" t="s">
+      <c r="J176" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5266,28 +5278,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="3">
+      <c r="A178" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="3">
+      <c r="B178" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="3">
+      <c r="C178" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="3">
+      <c r="E178" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="3">
+      <c r="F178" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="3">
+      <c r="G178" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="3">
+      <c r="H178" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5312,28 +5324,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="3">
+      <c r="B180" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="3">
+      <c r="C180" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="3">
+      <c r="D180" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="3">
+      <c r="E180" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="3">
+      <c r="F180" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="3">
+      <c r="G180" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="3">
+      <c r="H180" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="3">
+      <c r="I180" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5421,10 +5433,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="3" t="s">
+      <c r="J183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5468,28 +5480,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="3">
+      <c r="A185" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="3">
+      <c r="B185" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="3">
+      <c r="C185" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="3">
+      <c r="E185" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="3">
+      <c r="F185" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="3">
+      <c r="G185" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="3">
+      <c r="H185" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5514,28 +5526,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="3">
+      <c r="B187" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="3">
+      <c r="C187" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="3">
+      <c r="D187" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="3">
+      <c r="E187" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="3">
+      <c r="F187" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="3">
+      <c r="G187" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="3">
+      <c r="H187" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="3">
+      <c r="I187" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5623,10 +5635,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="3" t="s">
+      <c r="J190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5670,28 +5682,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="3">
+      <c r="A192" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="3">
+      <c r="B192" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="3">
+      <c r="C192" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="3">
+      <c r="E192" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="3">
+      <c r="F192" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="3">
+      <c r="G192" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="3">
+      <c r="H192" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -5716,28 +5728,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="3">
+      <c r="C194" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="3">
+      <c r="D194" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="3">
+      <c r="I194" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -5912,10 +5924,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="3" t="s">
+      <c r="J200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5959,28 +5971,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="3">
+      <c r="A202" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="3">
+      <c r="C202" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6005,28 +6017,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="3">
+      <c r="B204" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="3">
+      <c r="C204" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="3">
+      <c r="D204" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="3">
+      <c r="E204" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="3">
+      <c r="F204" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="3">
+      <c r="G204" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="3">
+      <c r="H204" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="3">
+      <c r="I204" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6114,10 +6126,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="3" t="s">
+      <c r="J207" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6161,28 +6173,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="3">
+      <c r="A209" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="3">
+      <c r="C209" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6207,28 +6219,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="3">
+      <c r="B211" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="3">
+      <c r="C211" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="3">
+      <c r="D211" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="3">
+      <c r="E211" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="3">
+      <c r="F211" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="3">
+      <c r="G211" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="3">
+      <c r="H211" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="3">
+      <c r="I211" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6345,10 +6357,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="3" t="s">
+      <c r="J215" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6392,28 +6404,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="3">
+      <c r="A217" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="3">
+      <c r="B217" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="3">
+      <c r="C217" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="3">
+      <c r="E217" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="3">
+      <c r="F217" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="3">
+      <c r="G217" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="3">
+      <c r="H217" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6438,28 +6450,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="3">
+      <c r="B219" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="3">
+      <c r="C219" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="3">
+      <c r="D219" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="3">
+      <c r="E219" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="3">
+      <c r="F219" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="3">
+      <c r="G219" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="3">
+      <c r="H219" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="3">
+      <c r="I219" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6576,10 +6588,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="3" t="s">
+      <c r="J223" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6623,28 +6635,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="3">
+      <c r="A225" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="3">
+      <c r="C225" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6669,28 +6681,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="3">
+      <c r="C227" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="3">
+      <c r="D227" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="3">
+      <c r="I227" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -6836,10 +6848,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="3" t="s">
+      <c r="J232" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6883,28 +6895,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="3">
+      <c r="A234" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="3">
+      <c r="B234" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="3">
+      <c r="C234" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="3">
+      <c r="E234" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="3">
+      <c r="F234" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="3">
+      <c r="G234" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="3">
+      <c r="H234" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -6929,28 +6941,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="3">
+      <c r="B236" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="3">
+      <c r="C236" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="3">
+      <c r="D236" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="3">
+      <c r="E236" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="3">
+      <c r="F236" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="3">
+      <c r="G236" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="3">
+      <c r="H236" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="3">
+      <c r="I236" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7125,10 +7137,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="3" t="s">
+      <c r="J242" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7172,28 +7184,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="3">
+      <c r="A244" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="3">
+      <c r="C244" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7218,28 +7230,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="3">
+      <c r="B246" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="3">
+      <c r="C246" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="3">
+      <c r="D246" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="3">
+      <c r="E246" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="3">
+      <c r="F246" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="3">
+      <c r="G246" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="3">
+      <c r="H246" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="3">
+      <c r="I246" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7356,10 +7368,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="3" t="s">
+      <c r="J250" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7403,28 +7415,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="3">
+      <c r="A252" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="3">
+      <c r="B252" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="3">
+      <c r="C252" t="s" s="5">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="3">
+      <c r="E252" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="3">
+      <c r="F252" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="3">
+      <c r="G252" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="3">
+      <c r="H252" t="s" s="5">
         <v>16</v>
       </c>
     </row>
@@ -7449,28 +7461,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="3">
+      <c r="C254" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="3">
+      <c r="D254" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="3">
+      <c r="I254" t="s" s="5">
         <v>11</v>
       </c>
     </row>
@@ -7529,10 +7541,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="3" t="s">
+      <c r="J256" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2870" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7462" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -148,13 +188,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -177,26 +225,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true">
-      <c r="A1" t="s" s="5">
+    <row r="1" s="13" customFormat="true">
+      <c r="A1" t="s" s="13">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="5">
+      <c r="B1" t="s" s="13">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="5">
+      <c r="C1" t="s" s="13">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="5">
+      <c r="D1" t="s" s="13">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="5">
+      <c r="F1" t="s" s="13">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="5">
+      <c r="G1" t="s" s="13">
         <v>7</v>
       </c>
     </row>
@@ -224,28 +272,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="5">
+      <c r="A3" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="5">
+      <c r="C3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="5">
+      <c r="E3" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="5">
+      <c r="F3" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="5">
+      <c r="G3" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="5">
+      <c r="H3" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -270,28 +318,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="5">
+      <c r="B5" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="5">
+      <c r="E5" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="5">
+      <c r="F5" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="5">
+      <c r="G5" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="5">
+      <c r="H5" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="5">
+      <c r="I5" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -437,10 +485,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -484,28 +532,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="5">
+      <c r="A12" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="5">
+      <c r="C12" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="5">
+      <c r="E12" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="5">
+      <c r="F12" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="5">
+      <c r="G12" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="5">
+      <c r="H12" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -530,28 +578,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="5">
+      <c r="B14" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="5">
+      <c r="E14" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="5">
+      <c r="F14" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="5">
+      <c r="G14" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="5">
+      <c r="H14" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="5">
+      <c r="I14" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -639,10 +687,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="5" t="s">
+      <c r="J17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -686,28 +734,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="5">
+      <c r="A19" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="5">
+      <c r="C19" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="5">
+      <c r="E19" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="5">
+      <c r="F19" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="5">
+      <c r="G19" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="5">
+      <c r="H19" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -732,28 +780,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="5">
+      <c r="B21" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="5">
+      <c r="E21" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="5">
+      <c r="F21" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="5">
+      <c r="G21" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="5">
+      <c r="H21" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="5">
+      <c r="I21" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -899,10 +947,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="5" t="s">
+      <c r="J26" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -946,28 +994,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="5">
+      <c r="A28" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="5">
+      <c r="C28" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="5">
+      <c r="E28" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="5">
+      <c r="F28" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="5">
+      <c r="G28" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="5">
+      <c r="H28" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -992,28 +1040,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="5">
+      <c r="B30" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D30" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="5">
+      <c r="E30" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="5">
+      <c r="F30" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="5">
+      <c r="G30" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="5">
+      <c r="H30" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="5">
+      <c r="I30" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1159,10 +1207,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="5" t="s">
+      <c r="J35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1206,28 +1254,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="5">
+      <c r="A37" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="5">
+      <c r="C37" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="5">
+      <c r="E37" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="5">
+      <c r="F37" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="5">
+      <c r="G37" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="5">
+      <c r="H37" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1252,28 +1300,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="5">
+      <c r="B39" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="5">
+      <c r="C39" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="5">
+      <c r="D39" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="5">
+      <c r="E39" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="5">
+      <c r="F39" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="5">
+      <c r="G39" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="5">
+      <c r="H39" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="5">
+      <c r="I39" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1390,10 +1438,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="5" t="s">
+      <c r="J43" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1437,28 +1485,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="5">
+      <c r="A45" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="5">
+      <c r="C45" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="5">
+      <c r="E45" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="5">
+      <c r="F45" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="5">
+      <c r="G45" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="5">
+      <c r="H45" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1483,28 +1531,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="5">
+      <c r="B47" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="5">
+      <c r="C47" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="5">
+      <c r="D47" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="5">
+      <c r="E47" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="5">
+      <c r="F47" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="5">
+      <c r="G47" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="5">
+      <c r="H47" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="5">
+      <c r="I47" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1592,10 +1640,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="5" t="s">
+      <c r="J50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1639,28 +1687,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="5">
+      <c r="A52" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="5">
+      <c r="B52" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="5">
+      <c r="C52" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="5">
+      <c r="E52" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="5">
+      <c r="F52" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="5">
+      <c r="G52" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="5">
+      <c r="H52" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1685,28 +1733,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="5">
+      <c r="B54" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="5">
+      <c r="C54" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="5">
+      <c r="D54" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="5">
+      <c r="E54" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="5">
+      <c r="F54" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="5">
+      <c r="G54" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="5">
+      <c r="H54" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="5">
+      <c r="I54" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -1881,10 +1929,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="5" t="s">
+      <c r="J60" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1928,28 +1976,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="5">
+      <c r="A62" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="5">
+      <c r="B62" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="5">
+      <c r="C62" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="5">
+      <c r="E62" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="5">
+      <c r="F62" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="5">
+      <c r="G62" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="5">
+      <c r="H62" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -1974,28 +2022,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="5">
+      <c r="B64" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="5">
+      <c r="C64" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="5">
+      <c r="D64" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="5">
+      <c r="E64" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="5">
+      <c r="F64" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="5">
+      <c r="G64" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="5">
+      <c r="H64" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="5">
+      <c r="I64" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2112,10 +2160,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="5" t="s">
+      <c r="J68" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2159,28 +2207,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="5">
+      <c r="A70" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="5">
+      <c r="B70" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="5">
+      <c r="C70" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="5">
+      <c r="E70" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="5">
+      <c r="F70" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="5">
+      <c r="G70" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="5">
+      <c r="H70" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2205,28 +2253,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="5">
+      <c r="B72" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="5">
+      <c r="C72" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="5">
+      <c r="D72" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="5">
+      <c r="E72" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="5">
+      <c r="F72" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="5">
+      <c r="G72" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="5">
+      <c r="H72" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="5">
+      <c r="I72" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2372,10 +2420,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="5" t="s">
+      <c r="J77" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2419,28 +2467,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="5">
+      <c r="A79" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="5">
+      <c r="B79" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="5">
+      <c r="C79" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="5">
+      <c r="E79" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="5">
+      <c r="F79" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="5">
+      <c r="G79" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="5">
+      <c r="H79" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2465,28 +2513,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="5">
+      <c r="B81" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="5">
+      <c r="C81" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="5">
+      <c r="D81" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="5">
+      <c r="E81" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="5">
+      <c r="F81" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="5">
+      <c r="G81" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="5">
+      <c r="H81" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="5">
+      <c r="I81" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2603,10 +2651,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="5" t="s">
+      <c r="J85" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2650,28 +2698,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="5">
+      <c r="A87" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="5">
+      <c r="B87" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="5">
+      <c r="C87" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="5">
+      <c r="E87" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="5">
+      <c r="F87" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="5">
+      <c r="G87" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="5">
+      <c r="H87" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2696,28 +2744,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="5">
+      <c r="B89" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="5">
+      <c r="C89" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="5">
+      <c r="D89" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="5">
+      <c r="E89" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="5">
+      <c r="F89" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="5">
+      <c r="G89" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="5">
+      <c r="H89" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="5">
+      <c r="I89" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2863,10 +2911,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="5" t="s">
+      <c r="J94" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2910,28 +2958,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="5">
+      <c r="A96" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="5">
+      <c r="B96" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="5">
+      <c r="C96" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="5">
+      <c r="E96" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="5">
+      <c r="F96" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="5">
+      <c r="G96" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="5">
+      <c r="H96" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2956,28 +3004,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="5">
+      <c r="B98" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="5">
+      <c r="C98" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="5">
+      <c r="D98" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="5">
+      <c r="E98" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="5">
+      <c r="F98" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="5">
+      <c r="G98" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="5">
+      <c r="H98" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="5">
+      <c r="I98" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3094,10 +3142,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="5" t="s">
+      <c r="J102" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3141,28 +3189,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="5">
+      <c r="A104" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="5">
+      <c r="B104" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="5">
+      <c r="C104" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="5">
+      <c r="E104" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="5">
+      <c r="F104" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="5">
+      <c r="G104" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="5">
+      <c r="H104" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3187,28 +3235,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="5">
+      <c r="B106" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="5">
+      <c r="C106" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="5">
+      <c r="D106" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="5">
+      <c r="E106" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="5">
+      <c r="F106" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="5">
+      <c r="G106" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="5">
+      <c r="H106" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="5">
+      <c r="I106" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3354,10 +3402,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="5" t="s">
+      <c r="J111" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3401,28 +3449,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="5">
+      <c r="A113" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="5">
+      <c r="B113" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="5">
+      <c r="C113" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="5">
+      <c r="E113" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="5">
+      <c r="F113" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="5">
+      <c r="G113" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="5">
+      <c r="H113" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3447,28 +3495,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="5">
+      <c r="B115" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="5">
+      <c r="C115" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="5">
+      <c r="D115" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="5">
+      <c r="E115" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="5">
+      <c r="F115" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="5">
+      <c r="G115" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="5">
+      <c r="H115" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="5">
+      <c r="I115" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3585,10 +3633,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="5" t="s">
+      <c r="J119" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3632,28 +3680,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="5">
+      <c r="A121" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="5">
+      <c r="B121" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="5">
+      <c r="C121" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="5">
+      <c r="E121" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="5">
+      <c r="F121" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="5">
+      <c r="G121" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="5">
+      <c r="H121" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3678,28 +3726,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="5">
+      <c r="B123" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="5">
+      <c r="C123" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="5">
+      <c r="D123" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="5">
+      <c r="E123" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="5">
+      <c r="F123" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="5">
+      <c r="G123" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="5">
+      <c r="H123" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="5">
+      <c r="I123" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -3816,10 +3864,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="5" t="s">
+      <c r="J127" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3863,28 +3911,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="5">
+      <c r="A129" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="5">
+      <c r="B129" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="5">
+      <c r="C129" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="5">
+      <c r="E129" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="5">
+      <c r="F129" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="5">
+      <c r="G129" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="5">
+      <c r="H129" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -3909,28 +3957,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="5">
+      <c r="B131" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="5">
+      <c r="C131" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="5">
+      <c r="D131" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="5">
+      <c r="E131" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="5">
+      <c r="F131" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="5">
+      <c r="G131" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="5">
+      <c r="H131" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="5">
+      <c r="I131" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4076,10 +4124,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="5" t="s">
+      <c r="J136" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4123,28 +4171,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="5">
+      <c r="A138" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="5">
+      <c r="B138" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="5">
+      <c r="C138" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="5">
+      <c r="E138" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="5">
+      <c r="F138" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="5">
+      <c r="G138" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="5">
+      <c r="H138" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4169,28 +4217,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="5">
+      <c r="B140" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="5">
+      <c r="C140" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="5">
+      <c r="D140" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="5">
+      <c r="E140" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="5">
+      <c r="F140" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="5">
+      <c r="G140" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="5">
+      <c r="H140" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="5">
+      <c r="I140" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4307,10 +4355,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="5" t="s">
+      <c r="J144" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4354,28 +4402,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="5">
+      <c r="A146" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="5">
+      <c r="B146" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="5">
+      <c r="C146" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="5">
+      <c r="E146" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="5">
+      <c r="F146" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="5">
+      <c r="G146" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="5">
+      <c r="H146" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4400,28 +4448,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="5">
+      <c r="B148" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="5">
+      <c r="C148" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="5">
+      <c r="D148" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="5">
+      <c r="E148" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="5">
+      <c r="F148" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="5">
+      <c r="G148" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="5">
+      <c r="H148" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="5">
+      <c r="I148" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4538,10 +4586,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="5" t="s">
+      <c r="J152" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4585,28 +4633,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="5">
+      <c r="A154" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="5">
+      <c r="B154" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="5">
+      <c r="C154" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="5">
+      <c r="E154" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="5">
+      <c r="F154" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="5">
+      <c r="G154" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="5">
+      <c r="H154" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4631,28 +4679,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="5">
+      <c r="B156" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="5">
+      <c r="C156" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="5">
+      <c r="D156" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="5">
+      <c r="E156" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="5">
+      <c r="F156" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="5">
+      <c r="G156" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="5">
+      <c r="H156" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="5">
+      <c r="I156" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -4769,10 +4817,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="5" t="s">
+      <c r="J160" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4816,28 +4864,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="5">
+      <c r="A162" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="5">
+      <c r="B162" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="5">
+      <c r="C162" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="5">
+      <c r="E162" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="5">
+      <c r="F162" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="5">
+      <c r="G162" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="5">
+      <c r="H162" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -4862,28 +4910,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="5">
+      <c r="B164" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="5">
+      <c r="C164" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="5">
+      <c r="D164" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="5">
+      <c r="E164" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="5">
+      <c r="F164" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="5">
+      <c r="G164" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="5">
+      <c r="H164" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="5">
+      <c r="I164" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5000,10 +5048,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="5" t="s">
+      <c r="J168" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5047,28 +5095,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="5">
+      <c r="A170" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="5">
+      <c r="B170" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="5">
+      <c r="C170" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="5">
+      <c r="E170" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="5">
+      <c r="F170" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="5">
+      <c r="G170" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="5">
+      <c r="H170" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5093,28 +5141,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="5">
+      <c r="B172" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="5">
+      <c r="C172" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="5">
+      <c r="D172" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="5">
+      <c r="E172" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="5">
+      <c r="F172" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="5">
+      <c r="G172" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="5">
+      <c r="H172" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="5">
+      <c r="I172" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5231,10 +5279,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="5" t="s">
+      <c r="J176" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5278,28 +5326,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="5">
+      <c r="A178" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="5">
+      <c r="B178" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="5">
+      <c r="C178" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="5">
+      <c r="E178" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="5">
+      <c r="F178" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="5">
+      <c r="G178" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="5">
+      <c r="H178" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5324,28 +5372,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="5">
+      <c r="B180" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="5">
+      <c r="C180" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="5">
+      <c r="D180" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="5">
+      <c r="E180" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="5">
+      <c r="F180" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="5">
+      <c r="G180" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="5">
+      <c r="H180" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="5">
+      <c r="I180" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5433,10 +5481,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="5" t="s">
+      <c r="J183" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5480,28 +5528,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="5">
+      <c r="A185" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="5">
+      <c r="B185" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="5">
+      <c r="C185" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="5">
+      <c r="E185" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="5">
+      <c r="F185" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="5">
+      <c r="G185" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="5">
+      <c r="H185" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5526,28 +5574,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="5">
+      <c r="B187" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="5">
+      <c r="C187" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="5">
+      <c r="D187" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="5">
+      <c r="E187" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="5">
+      <c r="F187" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="5">
+      <c r="G187" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="5">
+      <c r="H187" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="5">
+      <c r="I187" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5635,10 +5683,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="5" t="s">
+      <c r="J190" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5682,28 +5730,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="5">
+      <c r="A192" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="5">
+      <c r="B192" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="5">
+      <c r="C192" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="5">
+      <c r="E192" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="5">
+      <c r="F192" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="5">
+      <c r="G192" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="5">
+      <c r="H192" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -5728,28 +5776,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="5">
+      <c r="B194" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="5">
+      <c r="C194" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="5">
+      <c r="D194" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="5">
+      <c r="E194" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="5">
+      <c r="F194" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="5">
+      <c r="G194" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="5">
+      <c r="H194" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="5">
+      <c r="I194" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -5924,10 +5972,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="5" t="s">
+      <c r="J200" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5971,28 +6019,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="5">
+      <c r="A202" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="5">
+      <c r="B202" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="5">
+      <c r="C202" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="5">
+      <c r="E202" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="5">
+      <c r="F202" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="5">
+      <c r="G202" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="5">
+      <c r="H202" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6017,28 +6065,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="5">
+      <c r="B204" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="5">
+      <c r="C204" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="5">
+      <c r="D204" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="5">
+      <c r="E204" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="5">
+      <c r="F204" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="5">
+      <c r="G204" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="5">
+      <c r="H204" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="5">
+      <c r="I204" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6126,10 +6174,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="5" t="s">
+      <c r="J207" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6173,28 +6221,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="5">
+      <c r="A209" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="5">
+      <c r="B209" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="5">
+      <c r="C209" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="5">
+      <c r="E209" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="5">
+      <c r="F209" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="5">
+      <c r="G209" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="5">
+      <c r="H209" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6219,28 +6267,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="5">
+      <c r="B211" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="5">
+      <c r="C211" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="5">
+      <c r="D211" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="5">
+      <c r="E211" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="5">
+      <c r="F211" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="5">
+      <c r="G211" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="5">
+      <c r="H211" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="5">
+      <c r="I211" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6357,10 +6405,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="5" t="s">
+      <c r="J215" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6404,28 +6452,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="5">
+      <c r="A217" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="5">
+      <c r="B217" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="5">
+      <c r="C217" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="5">
+      <c r="E217" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="5">
+      <c r="F217" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="5">
+      <c r="G217" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="5">
+      <c r="H217" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6450,28 +6498,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="5">
+      <c r="B219" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="5">
+      <c r="C219" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="5">
+      <c r="D219" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="5">
+      <c r="E219" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="5">
+      <c r="F219" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="5">
+      <c r="G219" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="5">
+      <c r="H219" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="5">
+      <c r="I219" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6588,10 +6636,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="5" t="s">
+      <c r="J223" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6635,28 +6683,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="5">
+      <c r="A225" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="5">
+      <c r="B225" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="5">
+      <c r="C225" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="5">
+      <c r="E225" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="5">
+      <c r="F225" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="5">
+      <c r="G225" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="5">
+      <c r="H225" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6681,28 +6729,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="5">
+      <c r="B227" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="5">
+      <c r="C227" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="5">
+      <c r="D227" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="5">
+      <c r="E227" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="5">
+      <c r="F227" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="5">
+      <c r="G227" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="5">
+      <c r="H227" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="5">
+      <c r="I227" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -6848,10 +6896,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="5" t="s">
+      <c r="J232" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6895,28 +6943,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="5">
+      <c r="A234" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="5">
+      <c r="B234" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="5">
+      <c r="C234" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="5">
+      <c r="E234" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="5">
+      <c r="F234" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="5">
+      <c r="G234" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="5">
+      <c r="H234" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -6941,28 +6989,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="5">
+      <c r="B236" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="5">
+      <c r="C236" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="5">
+      <c r="D236" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="5">
+      <c r="E236" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="5">
+      <c r="F236" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="5">
+      <c r="G236" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="5">
+      <c r="H236" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="5">
+      <c r="I236" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7137,10 +7185,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="5" t="s">
+      <c r="J242" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7184,28 +7232,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="5">
+      <c r="A244" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="5">
+      <c r="B244" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="5">
+      <c r="C244" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="5">
+      <c r="E244" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="5">
+      <c r="F244" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="5">
+      <c r="G244" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="5">
+      <c r="H244" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7230,28 +7278,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="5">
+      <c r="B246" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="5">
+      <c r="C246" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="5">
+      <c r="D246" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="5">
+      <c r="E246" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="5">
+      <c r="F246" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="5">
+      <c r="G246" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="5">
+      <c r="H246" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="5">
+      <c r="I246" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7368,10 +7416,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="5" t="s">
+      <c r="J250" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7415,28 +7463,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="5">
+      <c r="A252" t="s" s="13">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="5">
+      <c r="B252" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="5">
+      <c r="C252" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="13">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="5">
+      <c r="E252" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="5">
+      <c r="F252" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="5">
+      <c r="G252" t="s" s="13">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="5">
+      <c r="H252" t="s" s="13">
         <v>16</v>
       </c>
     </row>
@@ -7461,28 +7509,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="5">
+      <c r="B254" t="s" s="13">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="5">
+      <c r="C254" t="s" s="13">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="5">
+      <c r="D254" t="s" s="13">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="5">
+      <c r="E254" t="s" s="13">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="5">
+      <c r="F254" t="s" s="13">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="5">
+      <c r="G254" t="s" s="13">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="5">
+      <c r="H254" t="s" s="13">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="5">
+      <c r="I254" t="s" s="13">
         <v>11</v>
       </c>
     </row>
@@ -7541,10 +7589,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="5" t="s">
+      <c r="J256" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="13" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c109_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7462" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10332" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -188,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -203,6 +228,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -225,26 +255,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="13" customFormat="true">
-      <c r="A1" t="s" s="13">
+    <row r="1" s="18" customFormat="true">
+      <c r="A1" t="s" s="18">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="13">
+      <c r="B1" t="s" s="18">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="13">
+      <c r="C1" t="s" s="18">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="13">
+      <c r="D1" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="13">
+      <c r="E1" t="s" s="18">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="13">
+      <c r="F1" t="s" s="18">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="13">
+      <c r="G1" t="s" s="18">
         <v>7</v>
       </c>
     </row>
@@ -272,28 +302,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="13">
+      <c r="A3" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="13">
+      <c r="B3" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="13">
+      <c r="C3" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="13">
+      <c r="E3" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="13">
+      <c r="F3" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="13">
+      <c r="G3" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="13">
+      <c r="H3" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -318,28 +348,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="13">
+      <c r="B5" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="13">
+      <c r="C5" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="13">
+      <c r="D5" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="13">
+      <c r="E5" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="13">
+      <c r="F5" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="13">
+      <c r="G5" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="13">
+      <c r="H5" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="13">
+      <c r="I5" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -485,10 +515,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="13" t="s">
+      <c r="J10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -532,28 +562,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="13">
+      <c r="A12" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="13">
+      <c r="B12" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="13">
+      <c r="C12" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="13">
+      <c r="E12" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="13">
+      <c r="F12" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="13">
+      <c r="G12" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="13">
+      <c r="H12" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -578,28 +608,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="13">
+      <c r="B14" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="13">
+      <c r="C14" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="13">
+      <c r="D14" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="13">
+      <c r="E14" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="13">
+      <c r="F14" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="13">
+      <c r="G14" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="13">
+      <c r="H14" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="13">
+      <c r="I14" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -687,10 +717,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="13" t="s">
+      <c r="J17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -734,28 +764,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="13">
+      <c r="A19" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B19" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="13">
+      <c r="C19" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="13">
+      <c r="E19" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="13">
+      <c r="F19" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="13">
+      <c r="G19" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="13">
+      <c r="H19" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -780,28 +810,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="13">
+      <c r="B21" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="13">
+      <c r="C21" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="13">
+      <c r="D21" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="13">
+      <c r="E21" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="13">
+      <c r="F21" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="13">
+      <c r="G21" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="13">
+      <c r="H21" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="13">
+      <c r="I21" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -947,10 +977,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="13" t="s">
+      <c r="J26" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -994,28 +1024,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="13">
+      <c r="A28" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="13">
+      <c r="B28" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="13">
+      <c r="C28" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="13">
+      <c r="E28" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="13">
+      <c r="F28" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="13">
+      <c r="G28" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="13">
+      <c r="H28" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1040,28 +1070,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="13">
+      <c r="B30" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="13">
+      <c r="C30" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="13">
+      <c r="D30" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="13">
+      <c r="E30" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="13">
+      <c r="F30" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="13">
+      <c r="G30" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="13">
+      <c r="H30" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="13">
+      <c r="I30" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1207,10 +1237,10 @@
       <c r="I35">
         <f>((C35-C34)^2+(D35- D34)^2)^.5</f>
       </c>
-      <c r="J35" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="J35" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L35" t="n">
@@ -1254,28 +1284,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="13">
+      <c r="A37" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B37" t="s" s="13">
+      <c r="B37" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C37" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D37" t="s" s="13">
+      <c r="C37" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E37" t="s" s="13">
+      <c r="E37" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F37" t="s" s="13">
+      <c r="F37" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G37" t="s" s="13">
+      <c r="G37" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H37" t="s" s="13">
+      <c r="H37" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1300,28 +1330,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="s" s="13">
+      <c r="B39" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C39" t="s" s="13">
+      <c r="C39" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D39" t="s" s="13">
+      <c r="D39" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E39" t="s" s="13">
+      <c r="E39" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F39" t="s" s="13">
+      <c r="F39" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G39" t="s" s="13">
+      <c r="G39" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H39" t="s" s="13">
+      <c r="H39" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I39" t="s" s="13">
+      <c r="I39" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1438,10 +1468,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="13" t="s">
+      <c r="J43" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1485,28 +1515,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="13">
+      <c r="A45" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="13">
+      <c r="B45" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="13">
+      <c r="C45" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="13">
+      <c r="E45" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="13">
+      <c r="F45" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="13">
+      <c r="G45" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="13">
+      <c r="H45" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1531,28 +1561,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="13">
+      <c r="B47" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="13">
+      <c r="C47" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="13">
+      <c r="D47" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="13">
+      <c r="E47" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="13">
+      <c r="F47" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="13">
+      <c r="G47" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="13">
+      <c r="H47" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="13">
+      <c r="I47" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1640,10 +1670,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="13" t="s">
+      <c r="J50" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1687,28 +1717,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="13">
+      <c r="A52" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="13">
+      <c r="B52" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="13">
+      <c r="C52" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="13">
+      <c r="E52" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="13">
+      <c r="F52" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="13">
+      <c r="G52" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="13">
+      <c r="H52" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -1733,28 +1763,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="13">
+      <c r="B54" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="13">
+      <c r="C54" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="13">
+      <c r="D54" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="13">
+      <c r="E54" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="13">
+      <c r="F54" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="13">
+      <c r="G54" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="13">
+      <c r="H54" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="13">
+      <c r="I54" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -1929,10 +1959,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="13" t="s">
+      <c r="J60" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1976,28 +2006,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="13">
+      <c r="A62" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="13">
+      <c r="B62" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="13">
+      <c r="C62" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="13">
+      <c r="E62" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="13">
+      <c r="F62" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="13">
+      <c r="G62" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="13">
+      <c r="H62" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2022,28 +2052,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="13">
+      <c r="B64" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="13">
+      <c r="C64" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="13">
+      <c r="D64" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="13">
+      <c r="E64" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="13">
+      <c r="F64" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="13">
+      <c r="G64" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="13">
+      <c r="H64" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="13">
+      <c r="I64" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2160,10 +2190,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="13" t="s">
+      <c r="J68" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2207,28 +2237,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="13">
+      <c r="A70" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="13">
+      <c r="B70" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="13">
+      <c r="C70" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="13">
+      <c r="E70" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="13">
+      <c r="F70" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="13">
+      <c r="G70" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="13">
+      <c r="H70" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2253,28 +2283,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="13">
+      <c r="B72" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="13">
+      <c r="C72" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="13">
+      <c r="D72" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="13">
+      <c r="E72" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="13">
+      <c r="F72" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="13">
+      <c r="G72" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="13">
+      <c r="H72" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="13">
+      <c r="I72" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2420,10 +2450,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="13" t="s">
+      <c r="J77" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2467,28 +2497,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="13">
+      <c r="A79" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="13">
+      <c r="B79" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="13">
+      <c r="C79" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="13">
+      <c r="E79" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="13">
+      <c r="F79" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="13">
+      <c r="G79" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="13">
+      <c r="H79" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2513,28 +2543,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="13">
+      <c r="B81" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="13">
+      <c r="C81" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="13">
+      <c r="D81" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="13">
+      <c r="E81" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="13">
+      <c r="F81" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="13">
+      <c r="G81" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="13">
+      <c r="H81" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="13">
+      <c r="I81" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2651,10 +2681,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="13" t="s">
+      <c r="J85" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2698,28 +2728,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="13">
+      <c r="A87" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="13">
+      <c r="B87" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="13">
+      <c r="C87" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="13">
+      <c r="E87" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="13">
+      <c r="F87" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="13">
+      <c r="G87" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="13">
+      <c r="H87" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -2744,28 +2774,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="13">
+      <c r="B89" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="13">
+      <c r="C89" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="13">
+      <c r="D89" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="13">
+      <c r="E89" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="13">
+      <c r="F89" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="13">
+      <c r="G89" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="13">
+      <c r="H89" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="13">
+      <c r="I89" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -2911,10 +2941,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="13" t="s">
+      <c r="J94" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2958,28 +2988,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="13">
+      <c r="A96" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="13">
+      <c r="B96" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="13">
+      <c r="C96" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="13">
+      <c r="E96" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="13">
+      <c r="F96" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="13">
+      <c r="G96" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="13">
+      <c r="H96" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3004,28 +3034,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="13">
+      <c r="B98" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="13">
+      <c r="C98" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="13">
+      <c r="D98" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="13">
+      <c r="E98" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="13">
+      <c r="F98" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="13">
+      <c r="G98" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="13">
+      <c r="H98" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="13">
+      <c r="I98" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3142,10 +3172,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="13" t="s">
+      <c r="J102" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3189,28 +3219,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="13">
+      <c r="A104" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="13">
+      <c r="B104" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="13">
+      <c r="C104" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="13">
+      <c r="E104" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="13">
+      <c r="F104" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="13">
+      <c r="G104" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="13">
+      <c r="H104" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3235,28 +3265,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="13">
+      <c r="B106" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="13">
+      <c r="C106" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="13">
+      <c r="D106" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="13">
+      <c r="E106" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="13">
+      <c r="F106" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="13">
+      <c r="G106" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="13">
+      <c r="H106" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="13">
+      <c r="I106" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3402,10 +3432,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="13" t="s">
+      <c r="J111" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3449,28 +3479,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="13">
+      <c r="A113" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="13">
+      <c r="B113" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="13">
+      <c r="C113" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="13">
+      <c r="E113" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="13">
+      <c r="F113" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="13">
+      <c r="G113" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="13">
+      <c r="H113" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3495,28 +3525,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="13">
+      <c r="B115" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="13">
+      <c r="C115" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="13">
+      <c r="D115" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="13">
+      <c r="E115" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="13">
+      <c r="F115" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="13">
+      <c r="G115" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="13">
+      <c r="H115" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="13">
+      <c r="I115" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3633,10 +3663,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="13" t="s">
+      <c r="J119" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3680,28 +3710,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="13">
+      <c r="A121" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="13">
+      <c r="B121" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="13">
+      <c r="C121" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="13">
+      <c r="E121" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="13">
+      <c r="F121" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="13">
+      <c r="G121" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="13">
+      <c r="H121" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3726,28 +3756,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="13">
+      <c r="B123" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="13">
+      <c r="C123" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="13">
+      <c r="D123" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="13">
+      <c r="E123" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="13">
+      <c r="F123" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="13">
+      <c r="G123" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="13">
+      <c r="H123" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="13">
+      <c r="I123" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -3864,10 +3894,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="13" t="s">
+      <c r="J127" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3911,28 +3941,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="13">
+      <c r="A129" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="13">
+      <c r="B129" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="13">
+      <c r="C129" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="13">
+      <c r="E129" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="13">
+      <c r="F129" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="13">
+      <c r="G129" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="13">
+      <c r="H129" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -3957,28 +3987,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="13">
+      <c r="B131" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="13">
+      <c r="C131" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="13">
+      <c r="D131" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="13">
+      <c r="E131" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="13">
+      <c r="F131" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="13">
+      <c r="G131" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="13">
+      <c r="H131" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="13">
+      <c r="I131" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4124,10 +4154,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K136" s="13" t="s">
+      <c r="J136" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K136" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
@@ -4171,28 +4201,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="13">
+      <c r="A138" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B138" t="s" s="13">
+      <c r="B138" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C138" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D138" t="s" s="13">
+      <c r="C138" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D138" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E138" t="s" s="13">
+      <c r="E138" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F138" t="s" s="13">
+      <c r="F138" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G138" t="s" s="13">
+      <c r="G138" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H138" t="s" s="13">
+      <c r="H138" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4217,28 +4247,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="B140" t="s" s="13">
+      <c r="B140" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C140" t="s" s="13">
+      <c r="C140" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D140" t="s" s="13">
+      <c r="D140" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E140" t="s" s="13">
+      <c r="E140" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F140" t="s" s="13">
+      <c r="F140" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G140" t="s" s="13">
+      <c r="G140" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H140" t="s" s="13">
+      <c r="H140" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I140" t="s" s="13">
+      <c r="I140" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4355,10 +4385,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="13" t="s">
+      <c r="J144" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4402,28 +4432,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="13">
+      <c r="A146" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="13">
+      <c r="B146" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="13">
+      <c r="C146" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="13">
+      <c r="E146" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="13">
+      <c r="F146" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="13">
+      <c r="G146" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="13">
+      <c r="H146" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4448,28 +4478,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="13">
+      <c r="B148" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="13">
+      <c r="C148" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="13">
+      <c r="D148" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="13">
+      <c r="E148" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="13">
+      <c r="F148" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="13">
+      <c r="G148" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="13">
+      <c r="H148" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="13">
+      <c r="I148" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4586,10 +4616,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="13" t="s">
+      <c r="J152" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4633,28 +4663,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="13">
+      <c r="A154" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="13">
+      <c r="B154" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="13">
+      <c r="C154" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="13">
+      <c r="E154" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="13">
+      <c r="F154" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="13">
+      <c r="G154" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="13">
+      <c r="H154" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4679,28 +4709,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="13">
+      <c r="B156" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="13">
+      <c r="C156" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="13">
+      <c r="D156" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="13">
+      <c r="E156" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="13">
+      <c r="F156" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="13">
+      <c r="G156" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="13">
+      <c r="H156" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="13">
+      <c r="I156" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -4817,10 +4847,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="13" t="s">
+      <c r="J160" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4864,28 +4894,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="13">
+      <c r="A162" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="13">
+      <c r="B162" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="13">
+      <c r="C162" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="13">
+      <c r="E162" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="13">
+      <c r="F162" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="13">
+      <c r="G162" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="13">
+      <c r="H162" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -4910,28 +4940,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="13">
+      <c r="B164" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="13">
+      <c r="C164" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="13">
+      <c r="D164" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="13">
+      <c r="E164" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="13">
+      <c r="F164" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="13">
+      <c r="G164" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="13">
+      <c r="H164" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="13">
+      <c r="I164" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5048,10 +5078,10 @@
       <c r="I168">
         <f>((C168-C167)^2+(D168- D167)^2)^.5</f>
       </c>
-      <c r="J168" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K168" s="13" t="s">
+      <c r="J168" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K168" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L168" t="n">
@@ -5095,28 +5125,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="13">
+      <c r="A170" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B170" t="s" s="13">
+      <c r="B170" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C170" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D170" t="s" s="13">
+      <c r="C170" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D170" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E170" t="s" s="13">
+      <c r="E170" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F170" t="s" s="13">
+      <c r="F170" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G170" t="s" s="13">
+      <c r="G170" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H170" t="s" s="13">
+      <c r="H170" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5141,28 +5171,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="B172" t="s" s="13">
+      <c r="B172" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C172" t="s" s="13">
+      <c r="C172" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D172" t="s" s="13">
+      <c r="D172" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E172" t="s" s="13">
+      <c r="E172" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F172" t="s" s="13">
+      <c r="F172" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G172" t="s" s="13">
+      <c r="G172" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H172" t="s" s="13">
+      <c r="H172" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I172" t="s" s="13">
+      <c r="I172" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5279,10 +5309,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="13" t="s">
+      <c r="J176" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5326,28 +5356,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="13">
+      <c r="A178" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="13">
+      <c r="B178" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="13">
+      <c r="C178" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="13">
+      <c r="E178" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="13">
+      <c r="F178" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="13">
+      <c r="G178" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="13">
+      <c r="H178" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5372,28 +5402,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="13">
+      <c r="B180" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="13">
+      <c r="C180" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="13">
+      <c r="D180" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="13">
+      <c r="E180" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="13">
+      <c r="F180" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="13">
+      <c r="G180" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="13">
+      <c r="H180" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="13">
+      <c r="I180" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5481,10 +5511,10 @@
       <c r="I183">
         <f>((C183-C182)^2+(D183- D182)^2)^.5</f>
       </c>
-      <c r="J183" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K183" s="13" t="s">
+      <c r="J183" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K183" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L183" t="n">
@@ -5528,28 +5558,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="13">
+      <c r="A185" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B185" t="s" s="13">
+      <c r="B185" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C185" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D185" t="s" s="13">
+      <c r="C185" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D185" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E185" t="s" s="13">
+      <c r="E185" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F185" t="s" s="13">
+      <c r="F185" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G185" t="s" s="13">
+      <c r="G185" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H185" t="s" s="13">
+      <c r="H185" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5574,28 +5604,28 @@
       </c>
     </row>
     <row r="187">
-      <c r="B187" t="s" s="13">
+      <c r="B187" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C187" t="s" s="13">
+      <c r="C187" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D187" t="s" s="13">
+      <c r="D187" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E187" t="s" s="13">
+      <c r="E187" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F187" t="s" s="13">
+      <c r="F187" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G187" t="s" s="13">
+      <c r="G187" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H187" t="s" s="13">
+      <c r="H187" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I187" t="s" s="13">
+      <c r="I187" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5683,10 +5713,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K190" s="13" t="s">
+      <c r="J190" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K190" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5730,28 +5760,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="13">
+      <c r="A192" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="13">
+      <c r="B192" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D192" t="s" s="13">
+      <c r="C192" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D192" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="13">
+      <c r="E192" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="13">
+      <c r="F192" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="13">
+      <c r="G192" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="13">
+      <c r="H192" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -5776,28 +5806,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="13">
+      <c r="B194" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="13">
+      <c r="C194" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="13">
+      <c r="D194" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="13">
+      <c r="E194" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="13">
+      <c r="F194" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="13">
+      <c r="G194" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="13">
+      <c r="H194" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="13">
+      <c r="I194" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -5972,10 +6002,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="13" t="s">
+      <c r="J200" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -6019,28 +6049,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="13">
+      <c r="A202" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="13">
+      <c r="B202" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="13">
+      <c r="C202" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="13">
+      <c r="E202" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="13">
+      <c r="F202" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="13">
+      <c r="G202" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="13">
+      <c r="H202" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6065,28 +6095,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="13">
+      <c r="B204" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="13">
+      <c r="C204" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="13">
+      <c r="D204" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="13">
+      <c r="E204" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="13">
+      <c r="F204" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="13">
+      <c r="G204" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="13">
+      <c r="H204" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="13">
+      <c r="I204" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6174,10 +6204,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="13" t="s">
+      <c r="J207" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6221,28 +6251,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="13">
+      <c r="A209" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="13">
+      <c r="B209" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="13">
+      <c r="C209" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="13">
+      <c r="E209" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="13">
+      <c r="F209" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="13">
+      <c r="G209" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="13">
+      <c r="H209" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6267,28 +6297,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="13">
+      <c r="B211" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="13">
+      <c r="C211" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="13">
+      <c r="D211" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="13">
+      <c r="E211" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="13">
+      <c r="F211" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="13">
+      <c r="G211" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="13">
+      <c r="H211" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="13">
+      <c r="I211" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6405,10 +6435,10 @@
       <c r="I215">
         <f>((C215-C214)^2+(D215- D214)^2)^.5</f>
       </c>
-      <c r="J215" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K215" s="13" t="s">
+      <c r="J215" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K215" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L215" t="n">
@@ -6452,28 +6482,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="s" s="13">
+      <c r="A217" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B217" t="s" s="13">
+      <c r="B217" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C217" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D217" t="s" s="13">
+      <c r="C217" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D217" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E217" t="s" s="13">
+      <c r="E217" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F217" t="s" s="13">
+      <c r="F217" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G217" t="s" s="13">
+      <c r="G217" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H217" t="s" s="13">
+      <c r="H217" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6498,28 +6528,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="B219" t="s" s="13">
+      <c r="B219" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C219" t="s" s="13">
+      <c r="C219" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D219" t="s" s="13">
+      <c r="D219" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E219" t="s" s="13">
+      <c r="E219" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F219" t="s" s="13">
+      <c r="F219" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G219" t="s" s="13">
+      <c r="G219" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H219" t="s" s="13">
+      <c r="H219" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I219" t="s" s="13">
+      <c r="I219" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6636,10 +6666,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="13" t="s">
+      <c r="J223" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6683,28 +6713,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="13">
+      <c r="A225" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="13">
+      <c r="B225" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="13">
+      <c r="C225" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="13">
+      <c r="E225" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="13">
+      <c r="F225" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="13">
+      <c r="G225" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="13">
+      <c r="H225" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6729,28 +6759,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="13">
+      <c r="B227" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="13">
+      <c r="C227" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="13">
+      <c r="D227" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="13">
+      <c r="E227" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="13">
+      <c r="F227" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="13">
+      <c r="G227" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="13">
+      <c r="H227" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="13">
+      <c r="I227" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -6896,10 +6926,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="13" t="s">
+      <c r="J232" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6943,28 +6973,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="13">
+      <c r="A234" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="13">
+      <c r="B234" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="13">
+      <c r="C234" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="13">
+      <c r="E234" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="13">
+      <c r="F234" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="13">
+      <c r="G234" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="13">
+      <c r="H234" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -6989,28 +7019,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="13">
+      <c r="B236" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="13">
+      <c r="C236" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="13">
+      <c r="D236" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="13">
+      <c r="E236" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="13">
+      <c r="F236" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="13">
+      <c r="G236" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="13">
+      <c r="H236" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="13">
+      <c r="I236" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7185,10 +7215,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="13" t="s">
+      <c r="J242" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7232,28 +7262,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="13">
+      <c r="A244" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="13">
+      <c r="B244" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="13">
+      <c r="C244" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="13">
+      <c r="E244" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="13">
+      <c r="F244" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="13">
+      <c r="G244" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="13">
+      <c r="H244" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7278,28 +7308,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="13">
+      <c r="B246" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="13">
+      <c r="C246" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="13">
+      <c r="D246" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="13">
+      <c r="E246" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="13">
+      <c r="F246" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="13">
+      <c r="G246" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="13">
+      <c r="H246" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="13">
+      <c r="I246" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7416,10 +7446,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="13" t="s">
+      <c r="J250" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7463,28 +7493,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="13">
+      <c r="A252" t="s" s="18">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="13">
+      <c r="B252" t="s" s="18">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="13">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="13">
+      <c r="C252" t="s" s="18">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="18">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="13">
+      <c r="E252" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="13">
+      <c r="F252" t="s" s="18">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="13">
+      <c r="G252" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="13">
+      <c r="H252" t="s" s="18">
         <v>16</v>
       </c>
     </row>
@@ -7509,28 +7539,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="13">
+      <c r="B254" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="13">
+      <c r="C254" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="13">
+      <c r="D254" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="13">
+      <c r="E254" t="s" s="18">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="13">
+      <c r="F254" t="s" s="18">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="13">
+      <c r="G254" t="s" s="18">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="13">
+      <c r="H254" t="s" s="18">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="13">
+      <c r="I254" t="s" s="18">
         <v>11</v>
       </c>
     </row>
@@ -7589,10 +7619,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="13" t="s">
+      <c r="J256" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="18" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
